--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Code\Project\sendEmailWithExcel\sendEmailWithExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1F9DF0-6DA4-4EAD-BE6A-E6ED67B4547B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F7027E-B363-4394-918C-F7EAD02FC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>发件人邮箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>LICENSE README.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要回执 1/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +118,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -143,9 +163,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,19 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="30.44140625" customWidth="1"/>
     <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -463,20 +492,23 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
@@ -485,6 +517,9 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
